--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_290.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_290.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,638 +488,660 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_0</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_241</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1306715063520871</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['Eb:7', 'Ab', 'F:7']]</t>
-        </is>
+          <t>jaah_53</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>jaah_78</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.05010769414861792</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'A:7']]</t>
+          <t>[['A:min7', 'D:7', 'G', 'G', 'A:min7']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(12.26, 14.86)]</t>
+          <t>[['C:min7', 'F:7', 'Bb', 'Bb', 'C:min7']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(108.586, 114.554)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:40.450000', '0:00:46.650000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:40.640000', '0:00:48.830000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_47</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1388888888888889</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['Bb:maj', 'Eb:maj', 'Bb:maj', 'Eb:maj']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_252</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2410714285714286</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'A']]</t>
+          <t>[['E:min', 'B:maj', 'E:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(217.493, 222.528)]</t>
+          <t>[['C:min', 'G:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(56.454081, 61.864331)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:01:29.080000', '0:01:38.100000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:07.523000', '0:00:10.397000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_214</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>jaah_27</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>jaah_86</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.04665379665379665</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['A:7', 'D', 'D', 'D', 'D']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(39.02, 57.2)]</t>
+          <t>[['F:7', 'Bb', 'Bb', 'Bb', 'Bb']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(101.06, 102.38)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:09.820000', '0:00:15.020000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:12.430000', '0:00:15.070000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min']]</t>
-        </is>
+          <t>isophonics_277</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_200</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1152173913043478</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['A', 'E', 'B'], ['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(84.62, 91.74)]</t>
+          <t>[['D', 'A', 'E'], ['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[('0:00:35.080113', '0:00:43.578616'), ('0:00:32.920657', '0:00:39.410634')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:08.085475', '0:00:18.139715'), ('0:00:02.408196', '0:00:13.878853')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_227</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.06613372093023256</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min/b3']]</t>
-        </is>
+          <t>schubert-winterreise_184</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>jaah_87</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.08217799642218247</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['G:min', 'G:min', 'A:hdim7/C', 'D:7', 'G:min'], ['G:min', 'A:hdim7/C', 'D:7', 'G:min', 'G:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(5.67204, 8.841564)]</t>
+          <t>[['F:min', 'F:min', 'G:hdim7', 'C:7', 'F:min'], ['F:min', 'G:hdim7', 'C:7', 'F:min', 'F:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(13.66, 17.9)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:12.900000', '0:00:19.480000'), ('0:00:09.180000', '0:00:15.600000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:51.290000', '0:00:58.230000'), ('0:00:52.680000', '0:00:59.630000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_196</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>0.5079365079365079</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(66.06, 68.18)]</t>
+          <t>[['A#:maj', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(7.1, 18.3)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:01:02.200000', '0:01:04.500000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:05.800000', '0:00:15.900000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2015810276679842</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C', 'C/b7']]</t>
-        </is>
+          <t>schubert-winterreise_72</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(34.041, 38.588)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(5.7, 10.9)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:00.380000', '0:00:08.900000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:06.980000', '0:00:20.820000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.09427767354596622</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A', 'A', 'E/4']]</t>
-        </is>
+          <t>schubert-winterreise_166</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_14</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A', 'A', 'E']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(30.47, 33.309)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(16.585419, 21.24102)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
-        </is>
-      </c>
+          <t>[('0:00:58.680000', '0:01:20.420000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:01:13.260000', '0:01:39.080000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_1</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_271</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Eb', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['E', 'E/5', 'E']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(0.72, 6.88)]</t>
+          <t>[['F#:maj/A#', 'C#:7', 'F#:maj', 'F#:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(61.881201, 65.886643)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:01:04.300000', '0:01:07.900000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:21.620000', '0:00:25.320000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_22</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_69</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.05720720720720721</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['B', 'B/7', 'B/6']]</t>
-        </is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_156</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3882352941176471</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb', 'Eb']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(0.440395, 2.746326)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(16.13, 24.98)]</t>
+          <t>[('0:02:23.580000', '0:02:28.160000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
+          <t>[('0:00:11.070127', '0:00:13.723731')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_133</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1168269230769231</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'D:min', 'G:min/A#'], ['F:maj', 'A#:maj/F', 'F:maj']]</t>
-        </is>
+          <t>isophonics_295</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5111111111111111</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D', 'B:min', 'E:min'], ['D/3', 'G', 'D']]</t>
+          <t>[['C/3', 'F', 'C/3', 'F']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(10.18, 16.02), (17.34, 24.4)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(22.862248, 25.88757), (57.251357, 73.909779)]</t>
+          <t>[('0:01:16.585782', '0:01:18.536258')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:02:34.020000', '0:02:40.380000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_109</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(124.92, 128.84)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(94.925, 100.821)]</t>
+          <t>[('0:02:28.100000', '0:02:32.600000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:02:30.200000', '0:02:34.940000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_27</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.03586956521739131</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G', 'C:min', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A', 'D:min', 'D:min']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(13.5, 19.74)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(35.155014, 49.662244)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:01:06.740000', '0:01:13.840000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:01:20.920000', '0:01:29.040000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_92</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2363636363636364</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_109</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_208</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(39.04, 46.1)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(0.36, 2.44)]</t>
+          <t>[('0:00:01.540000', '0:02:18.860000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:00:01.920000', '0:02:29.880000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.07984496124031007</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:min', 'B:dim7/C', 'C:min'], ['G:7', 'C:min', 'C:min', 'D:hdim7/C'], ['C:min', 'B:dim7/C', 'C:min', 'B:dim7/C']]</t>
-        </is>
+          <t>schubert-winterreise_106</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_43</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'G#:dim7', 'A:min'], ['E:7', 'A:min', 'A:min', 'B:hdim7/D'], ['A:min', 'G#:dim7', 'A:min', 'G#:dim7']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(75.72, 86.06), (23.6, 31.26), (0.54, 7.84)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(20.48, 26.3), (14.78, 20.48), (21.9, 27.82)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:01:26.980000', '0:01:51.200000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:01:27.440000', '0:01:50.440000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_166</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_273</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2329545454545455</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G', 'D', 'G']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C', 'G', 'C']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(17.839297, 22.785147)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(20.801, 27.165)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
